--- a/pubpol750-2022/Week10/Weights Example Data.xlsx
+++ b/pubpol750-2022/Week10/Weights Example Data.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/justinsavoie/Documents/personal_repos/personal_website/pubpol750-2022/Week10/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{93908E3D-FE42-134E-957A-3515605E7528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C32CC75-1AA7-9E46-B2E8-2A353C9C7CCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{D4527E1B-6CFF-344D-ABDF-F8565CB2895B}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" activeTab="1" xr2:uid="{D4527E1B-6CFF-344D-ABDF-F8565CB2895B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="8">
   <si>
     <t>Respondent</t>
   </si>
@@ -47,6 +48,18 @@
   </si>
   <si>
     <t>University</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Female</t>
   </si>
 </sst>
 </file>
@@ -400,8 +413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CEB458A-2620-0A41-BDDF-029273C4F88D}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="A1:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -497,4 +510,140 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB0A7EB9-A84C-0147-B171-40FB200A75B2}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>